--- a/Exam Attempt3.xlsx
+++ b/Exam Attempt3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F1655-E015-49A9-A942-7B8CBD0316AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$D$1:$D$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">new!$D$1:$D$149</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="522">
   <si>
     <t>Slno</t>
   </si>
@@ -1595,12 +1594,21 @@
   </si>
   <si>
     <t>The service is LDAP. You must change it to 636, which is LDAPS.</t>
+  </si>
+  <si>
+    <t>Actions on Objective</t>
+  </si>
+  <si>
+    <t>Verbose failure messages</t>
+  </si>
+  <si>
+    <t>Searching database statements at the IP address given</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1997,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3907,17 +3915,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
@@ -5826,13 +5834,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="D1:D132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7387,18 +7395,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="D1:D132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7428,9 +7436,12 @@
       <c r="B2" t="s">
         <v>362</v>
       </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7440,9 +7451,12 @@
       <c r="B3" t="s">
         <v>363</v>
       </c>
+      <c r="C3" t="s">
+        <v>363</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D16" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7452,9 +7466,12 @@
       <c r="B4" t="s">
         <v>364</v>
       </c>
+      <c r="C4" t="s">
+        <v>364</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7464,9 +7481,12 @@
       <c r="B5" t="s">
         <v>365</v>
       </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7476,9 +7496,12 @@
       <c r="B6" t="s">
         <v>366</v>
       </c>
+      <c r="C6" t="s">
+        <v>366</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7488,9 +7511,12 @@
       <c r="B7" t="s">
         <v>367</v>
       </c>
+      <c r="C7" t="s">
+        <v>367</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7500,9 +7526,12 @@
       <c r="B8" t="s">
         <v>368</v>
       </c>
+      <c r="C8" t="s">
+        <v>368</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7536,9 +7565,12 @@
       <c r="B11" t="s">
         <v>371</v>
       </c>
+      <c r="C11" t="s">
+        <v>371</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -7548,9 +7580,12 @@
       <c r="B12" t="s">
         <v>372</v>
       </c>
+      <c r="C12" t="s">
+        <v>372</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -7560,9 +7595,12 @@
       <c r="B13" t="s">
         <v>373</v>
       </c>
+      <c r="C13" t="s">
+        <v>373</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -7572,9 +7610,12 @@
       <c r="B14" t="s">
         <v>374</v>
       </c>
+      <c r="C14" t="s">
+        <v>374</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -7584,9 +7625,12 @@
       <c r="B15" t="s">
         <v>375</v>
       </c>
+      <c r="C15" t="s">
+        <v>375</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -7596,9 +7640,12 @@
       <c r="B16" t="s">
         <v>376</v>
       </c>
+      <c r="C16" t="s">
+        <v>376</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7620,9 +7667,12 @@
       <c r="B18" t="s">
         <v>378</v>
       </c>
+      <c r="C18" t="s">
+        <v>378</v>
+      </c>
       <c r="D18" t="b">
         <f>IF(B18=C18,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7632,9 +7682,12 @@
       <c r="B19" t="s">
         <v>379</v>
       </c>
+      <c r="C19" t="s">
+        <v>379</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" ref="D19:D82" si="2">IF(B19=C19,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7644,9 +7697,12 @@
       <c r="B20" t="s">
         <v>380</v>
       </c>
+      <c r="C20" t="s">
+        <v>380</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7656,9 +7712,12 @@
       <c r="B21" t="s">
         <v>381</v>
       </c>
+      <c r="C21" t="s">
+        <v>381</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7680,9 +7739,12 @@
       <c r="B23" t="s">
         <v>383</v>
       </c>
+      <c r="C23" t="s">
+        <v>383</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7692,9 +7754,12 @@
       <c r="B24" t="s">
         <v>384</v>
       </c>
+      <c r="C24" t="s">
+        <v>384</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7704,9 +7769,12 @@
       <c r="B25" t="s">
         <v>385</v>
       </c>
+      <c r="C25" t="s">
+        <v>385</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7728,9 +7796,12 @@
       <c r="B27" t="s">
         <v>339</v>
       </c>
+      <c r="C27" t="s">
+        <v>339</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -7740,9 +7811,12 @@
       <c r="B28" t="s">
         <v>387</v>
       </c>
+      <c r="C28" t="s">
+        <v>387</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7752,9 +7826,12 @@
       <c r="B29" t="s">
         <v>388</v>
       </c>
+      <c r="C29" t="s">
+        <v>388</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -7764,9 +7841,12 @@
       <c r="B30" t="s">
         <v>389</v>
       </c>
+      <c r="C30" t="s">
+        <v>389</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -7776,9 +7856,12 @@
       <c r="B31" t="s">
         <v>390</v>
       </c>
+      <c r="C31" t="s">
+        <v>390</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -7788,9 +7871,12 @@
       <c r="B32" t="s">
         <v>391</v>
       </c>
+      <c r="C32" t="s">
+        <v>391</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7800,9 +7886,12 @@
       <c r="B33" t="s">
         <v>392</v>
       </c>
+      <c r="C33" t="s">
+        <v>392</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -7812,9 +7901,12 @@
       <c r="B34" t="s">
         <v>393</v>
       </c>
+      <c r="C34" t="s">
+        <v>393</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -7824,9 +7916,12 @@
       <c r="B35" t="s">
         <v>394</v>
       </c>
+      <c r="C35" t="s">
+        <v>394</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7836,6 +7931,9 @@
       <c r="B36" t="s">
         <v>395</v>
       </c>
+      <c r="C36" t="s">
+        <v>519</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7860,9 +7958,12 @@
       <c r="B38" t="s">
         <v>397</v>
       </c>
+      <c r="C38" t="s">
+        <v>397</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -7872,9 +7973,12 @@
       <c r="B39" t="s">
         <v>398</v>
       </c>
+      <c r="C39" t="s">
+        <v>398</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -7884,9 +7988,12 @@
       <c r="B40" t="s">
         <v>399</v>
       </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -7896,9 +8003,12 @@
       <c r="B41" t="s">
         <v>400</v>
       </c>
+      <c r="C41" t="s">
+        <v>400</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -7920,9 +8030,12 @@
       <c r="B43" t="s">
         <v>401</v>
       </c>
+      <c r="C43" t="s">
+        <v>401</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -7932,9 +8045,12 @@
       <c r="B44" t="s">
         <v>402</v>
       </c>
+      <c r="C44" t="s">
+        <v>402</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -7944,9 +8060,12 @@
       <c r="B45" t="s">
         <v>403</v>
       </c>
+      <c r="C45" t="s">
+        <v>403</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -7956,7 +8075,9 @@
       <c r="B46" t="s">
         <v>404</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7981,9 +8102,12 @@
       <c r="B48" t="s">
         <v>406</v>
       </c>
+      <c r="C48" t="s">
+        <v>406</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -7993,9 +8117,12 @@
       <c r="B49" t="s">
         <v>407</v>
       </c>
+      <c r="C49" t="s">
+        <v>407</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8017,9 +8144,12 @@
       <c r="B51" t="s">
         <v>409</v>
       </c>
+      <c r="C51" t="s">
+        <v>409</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8029,9 +8159,12 @@
       <c r="B52" t="s">
         <v>410</v>
       </c>
+      <c r="C52" t="s">
+        <v>410</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -8041,9 +8174,12 @@
       <c r="B53" t="s">
         <v>411</v>
       </c>
+      <c r="C53" t="s">
+        <v>411</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -8053,9 +8189,12 @@
       <c r="B54" t="s">
         <v>412</v>
       </c>
+      <c r="C54" t="s">
+        <v>412</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -8065,9 +8204,12 @@
       <c r="B55" t="s">
         <v>413</v>
       </c>
+      <c r="C55" t="s">
+        <v>413</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -8089,9 +8231,12 @@
       <c r="B57" t="s">
         <v>415</v>
       </c>
+      <c r="C57" t="s">
+        <v>415</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -8101,9 +8246,12 @@
       <c r="B58" t="s">
         <v>416</v>
       </c>
+      <c r="C58" t="s">
+        <v>416</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -8113,9 +8261,12 @@
       <c r="B59" t="s">
         <v>417</v>
       </c>
+      <c r="C59" t="s">
+        <v>417</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -8125,9 +8276,12 @@
       <c r="B60" t="s">
         <v>418</v>
       </c>
+      <c r="C60" t="s">
+        <v>418</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -8137,9 +8291,12 @@
       <c r="B61" t="s">
         <v>419</v>
       </c>
+      <c r="C61" t="s">
+        <v>419</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -8149,9 +8306,12 @@
       <c r="B62" t="s">
         <v>420</v>
       </c>
+      <c r="C62" t="s">
+        <v>420</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -8161,9 +8321,12 @@
       <c r="B63" t="s">
         <v>421</v>
       </c>
+      <c r="C63" t="s">
+        <v>421</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -8173,9 +8336,12 @@
       <c r="B64" t="s">
         <v>422</v>
       </c>
+      <c r="C64" t="s">
+        <v>422</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -8185,6 +8351,9 @@
       <c r="B65" t="s">
         <v>423</v>
       </c>
+      <c r="C65" t="s">
+        <v>520</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8197,9 +8366,12 @@
       <c r="B66" t="s">
         <v>424</v>
       </c>
+      <c r="C66" t="s">
+        <v>424</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -8209,9 +8381,12 @@
       <c r="B67" t="s">
         <v>425</v>
       </c>
+      <c r="C67" t="s">
+        <v>425</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,9 +8396,12 @@
       <c r="B68" t="s">
         <v>426</v>
       </c>
+      <c r="C68" t="s">
+        <v>426</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -8233,9 +8411,12 @@
       <c r="B69" t="s">
         <v>427</v>
       </c>
+      <c r="C69" t="s">
+        <v>427</v>
+      </c>
       <c r="D69" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -8245,9 +8426,12 @@
       <c r="B70" t="s">
         <v>428</v>
       </c>
+      <c r="C70" t="s">
+        <v>428</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -8257,9 +8441,12 @@
       <c r="B71" t="s">
         <v>165</v>
       </c>
+      <c r="C71" t="s">
+        <v>165</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -8269,9 +8456,12 @@
       <c r="B72" t="s">
         <v>429</v>
       </c>
+      <c r="C72" t="s">
+        <v>429</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -8293,9 +8483,12 @@
       <c r="B74" t="s">
         <v>431</v>
       </c>
+      <c r="C74" t="s">
+        <v>431</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -8305,9 +8498,12 @@
       <c r="B75" t="s">
         <v>432</v>
       </c>
+      <c r="C75" t="s">
+        <v>432</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -8317,9 +8513,12 @@
       <c r="B76" t="s">
         <v>373</v>
       </c>
+      <c r="C76" t="s">
+        <v>373</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -8341,9 +8540,12 @@
       <c r="B78" t="s">
         <v>434</v>
       </c>
+      <c r="C78" t="s">
+        <v>434</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -8353,6 +8555,9 @@
       <c r="B79" t="s">
         <v>435</v>
       </c>
+      <c r="C79" t="s">
+        <v>521</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8365,9 +8570,12 @@
       <c r="B80" t="s">
         <v>436</v>
       </c>
+      <c r="C80" t="s">
+        <v>436</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -8377,9 +8585,12 @@
       <c r="B81" t="s">
         <v>437</v>
       </c>
+      <c r="C81" t="s">
+        <v>437</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -8389,9 +8600,12 @@
       <c r="B82" t="s">
         <v>438</v>
       </c>
+      <c r="C82" t="s">
+        <v>438</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -8413,9 +8627,12 @@
       <c r="B84" t="s">
         <v>132</v>
       </c>
+      <c r="C84" t="s">
+        <v>132</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -8425,9 +8642,12 @@
       <c r="B85" t="s">
         <v>440</v>
       </c>
+      <c r="C85" t="s">
+        <v>440</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -8437,9 +8657,12 @@
       <c r="B86" t="s">
         <v>211</v>
       </c>
+      <c r="C86" t="s">
+        <v>211</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -8449,9 +8672,12 @@
       <c r="B87" t="s">
         <v>441</v>
       </c>
+      <c r="C87" t="s">
+        <v>441</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -8461,9 +8687,12 @@
       <c r="B88" t="s">
         <v>442</v>
       </c>
+      <c r="C88" t="s">
+        <v>442</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -8473,9 +8702,12 @@
       <c r="B89" t="s">
         <v>443</v>
       </c>
+      <c r="C89" t="s">
+        <v>443</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -8485,9 +8717,12 @@
       <c r="B90" t="s">
         <v>444</v>
       </c>
+      <c r="C90" t="s">
+        <v>444</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -8497,9 +8732,12 @@
       <c r="B91" t="s">
         <v>445</v>
       </c>
+      <c r="C91" t="s">
+        <v>445</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -8509,9 +8747,12 @@
       <c r="B92" t="s">
         <v>446</v>
       </c>
+      <c r="C92" t="s">
+        <v>446</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -8521,9 +8762,12 @@
       <c r="B93" t="s">
         <v>447</v>
       </c>
+      <c r="C93" t="s">
+        <v>447</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -8533,9 +8777,12 @@
       <c r="B94" t="s">
         <v>448</v>
       </c>
+      <c r="C94" t="s">
+        <v>448</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -8545,9 +8792,12 @@
       <c r="B95" t="s">
         <v>449</v>
       </c>
+      <c r="C95" t="s">
+        <v>449</v>
+      </c>
       <c r="D95" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -8557,9 +8807,12 @@
       <c r="B96" t="s">
         <v>450</v>
       </c>
+      <c r="C96" t="s">
+        <v>450</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -8569,9 +8822,12 @@
       <c r="B97" t="s">
         <v>451</v>
       </c>
+      <c r="C97" t="s">
+        <v>451</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -8581,9 +8837,12 @@
       <c r="B98" t="s">
         <v>452</v>
       </c>
+      <c r="C98" t="s">
+        <v>452</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -8593,9 +8852,12 @@
       <c r="B99" t="s">
         <v>453</v>
       </c>
+      <c r="C99" t="s">
+        <v>453</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -8605,6 +8867,9 @@
       <c r="B100" t="s">
         <v>30</v>
       </c>
+      <c r="C100" t="s">
+        <v>235</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8617,15 +8882,18 @@
       <c r="B101" t="s">
         <v>454</v>
       </c>
+      <c r="C101" t="s">
+        <v>454</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D102">
         <f>COUNTIF(D2:D101,TRUE)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -8634,7 +8902,7 @@
       </c>
       <c r="G104">
         <f>SUM(D102)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -8643,7 +8911,7 @@
       </c>
       <c r="G105">
         <f>SUM(G104/100*100)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -8652,18 +8920,18 @@
       </c>
       <c r="G107" t="str">
         <f>IF(G104&gt;=73,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D107" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="D1:D107"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11016,7 +11284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12591,7 +12859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14365,7 +14633,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D149" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="D1:D149"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Exam Attempt3.xlsx
+++ b/Exam Attempt3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2E5B3-7D46-4085-A774-F26036410DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$D$1:$D$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">new!$D$1:$D$149</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="532">
   <si>
     <t>Slno</t>
   </si>
@@ -1603,12 +1604,42 @@
   </si>
   <si>
     <t>Searching database statements at the IP address given</t>
+  </si>
+  <si>
+    <t>Perform a vulnerability scan of the system</t>
+  </si>
+  <si>
+    <t>Physical layer</t>
+  </si>
+  <si>
+    <t>Nessus</t>
+  </si>
+  <si>
+    <t>Clickjacking</t>
+  </si>
+  <si>
+    <t>Double quotation</t>
+  </si>
+  <si>
+    <t>John should write to jacksmith@gmail.com to verify the identity of Jack</t>
+  </si>
+  <si>
+    <t>This is the process of sniffing through the switch</t>
+  </si>
+  <si>
+    <t>Kernel mode rootkits</t>
+  </si>
+  <si>
+    <t>Attempts by attackers to access passwords stored on the employee's computer</t>
+  </si>
+  <si>
+    <t>Macro Virus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2005,11 +2036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,18 +3946,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131"/>
+  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5834,17 +5865,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132"/>
+  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5874,9 +5905,12 @@
       <c r="B2" t="s">
         <v>245</v>
       </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5886,9 +5920,12 @@
       <c r="B3" t="s">
         <v>246</v>
       </c>
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D67" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5910,9 +5947,12 @@
       <c r="B5" t="s">
         <v>248</v>
       </c>
+      <c r="C5" t="s">
+        <v>248</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5934,9 +5974,12 @@
       <c r="B7" t="s">
         <v>266</v>
       </c>
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5946,9 +5989,12 @@
       <c r="B8" t="s">
         <v>250</v>
       </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5958,9 +6004,12 @@
       <c r="B9" t="s">
         <v>251</v>
       </c>
+      <c r="C9" t="s">
+        <v>251</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5970,9 +6019,12 @@
       <c r="B10" t="s">
         <v>252</v>
       </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6018,9 +6070,12 @@
       <c r="B14" t="s">
         <v>256</v>
       </c>
+      <c r="C14" t="s">
+        <v>256</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6030,9 +6085,12 @@
       <c r="B15" t="s">
         <v>257</v>
       </c>
+      <c r="C15" t="s">
+        <v>257</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6042,9 +6100,12 @@
       <c r="B16">
         <v>2</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6054,9 +6115,12 @@
       <c r="B17" t="s">
         <v>258</v>
       </c>
+      <c r="C17" t="s">
+        <v>258</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6066,9 +6130,12 @@
       <c r="B18" t="s">
         <v>259</v>
       </c>
+      <c r="C18" t="s">
+        <v>259</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6078,9 +6145,12 @@
       <c r="B19" t="s">
         <v>260</v>
       </c>
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6090,9 +6160,12 @@
       <c r="B20" t="s">
         <v>261</v>
       </c>
+      <c r="C20" t="s">
+        <v>261</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6114,9 +6187,12 @@
       <c r="B22" t="s">
         <v>263</v>
       </c>
+      <c r="C22" t="s">
+        <v>263</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6138,9 +6214,12 @@
       <c r="B24" t="s">
         <v>265</v>
       </c>
+      <c r="C24" t="s">
+        <v>265</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6150,9 +6229,12 @@
       <c r="B25" t="s">
         <v>267</v>
       </c>
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,9 +6244,12 @@
       <c r="B26" t="s">
         <v>268</v>
       </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6174,9 +6259,12 @@
       <c r="B27" t="s">
         <v>269</v>
       </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6186,9 +6274,12 @@
       <c r="B28" t="s">
         <v>270</v>
       </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,9 +6313,12 @@
       <c r="B31" t="s">
         <v>273</v>
       </c>
+      <c r="C31" t="s">
+        <v>273</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6234,9 +6328,12 @@
       <c r="B32" t="s">
         <v>274</v>
       </c>
+      <c r="C32" t="s">
+        <v>274</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6246,9 +6343,12 @@
       <c r="B33" t="s">
         <v>275</v>
       </c>
+      <c r="C33" t="s">
+        <v>275</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6258,9 +6358,12 @@
       <c r="B34" t="s">
         <v>276</v>
       </c>
+      <c r="C34" t="s">
+        <v>276</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -6282,9 +6385,12 @@
       <c r="B36" t="s">
         <v>278</v>
       </c>
+      <c r="C36" t="s">
+        <v>278</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6294,9 +6400,12 @@
       <c r="B37" t="s">
         <v>279</v>
       </c>
+      <c r="C37" t="s">
+        <v>279</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6306,9 +6415,12 @@
       <c r="B38" t="s">
         <v>280</v>
       </c>
+      <c r="C38" t="s">
+        <v>280</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6318,6 +6430,9 @@
       <c r="B39" t="s">
         <v>281</v>
       </c>
+      <c r="C39" t="s">
+        <v>522</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6342,9 +6457,12 @@
       <c r="B41" t="s">
         <v>283</v>
       </c>
+      <c r="C41" t="s">
+        <v>283</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6354,9 +6472,12 @@
       <c r="B42" t="s">
         <v>31</v>
       </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6366,6 +6487,9 @@
       <c r="B43" t="s">
         <v>284</v>
       </c>
+      <c r="C43" t="s">
+        <v>523</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6402,9 +6526,12 @@
       <c r="B46" t="s">
         <v>287</v>
       </c>
+      <c r="C46" t="s">
+        <v>287</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,9 +6565,12 @@
       <c r="B49" t="s">
         <v>290</v>
       </c>
+      <c r="C49" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6450,9 +6580,12 @@
       <c r="B50" t="s">
         <v>291</v>
       </c>
+      <c r="C50" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6462,6 +6595,9 @@
       <c r="B51" t="s">
         <v>292</v>
       </c>
+      <c r="C51" t="s">
+        <v>524</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6474,9 +6610,12 @@
       <c r="B52" t="s">
         <v>293</v>
       </c>
+      <c r="C52" t="s">
+        <v>293</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,9 +6661,12 @@
       <c r="B56" t="s">
         <v>295</v>
       </c>
+      <c r="C56" t="s">
+        <v>295</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6534,9 +6676,12 @@
       <c r="B57" t="s">
         <v>296</v>
       </c>
+      <c r="C57" t="s">
+        <v>296</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6546,9 +6691,12 @@
       <c r="B58" t="s">
         <v>297</v>
       </c>
+      <c r="C58" t="s">
+        <v>297</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6570,9 +6718,12 @@
       <c r="B60" t="s">
         <v>299</v>
       </c>
+      <c r="C60" t="s">
+        <v>299</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6582,9 +6733,12 @@
       <c r="B61" t="s">
         <v>300</v>
       </c>
+      <c r="C61" t="s">
+        <v>300</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6594,9 +6748,12 @@
       <c r="B62" t="s">
         <v>147</v>
       </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6606,9 +6763,12 @@
       <c r="B63" t="s">
         <v>301</v>
       </c>
+      <c r="C63" t="s">
+        <v>301</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6618,9 +6778,12 @@
       <c r="B64" t="s">
         <v>302</v>
       </c>
+      <c r="C64" t="s">
+        <v>302</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6630,9 +6793,12 @@
       <c r="B65" t="s">
         <v>303</v>
       </c>
+      <c r="C65" t="s">
+        <v>303</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -6642,9 +6808,12 @@
       <c r="B66" t="s">
         <v>304</v>
       </c>
+      <c r="C66" t="s">
+        <v>304</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6654,9 +6823,12 @@
       <c r="B67" t="s">
         <v>305</v>
       </c>
+      <c r="C67" t="s">
+        <v>305</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6666,9 +6838,12 @@
       <c r="B68" t="s">
         <v>306</v>
       </c>
+      <c r="C68" t="s">
+        <v>306</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" ref="D68" si="1">IF(B68=C68,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6678,6 +6853,9 @@
       <c r="B69" t="s">
         <v>234</v>
       </c>
+      <c r="C69" t="s">
+        <v>525</v>
+      </c>
       <c r="D69" t="b">
         <f>IF(B69=C69,TRUE,FALSE)</f>
         <v>0</v>
@@ -6690,9 +6868,12 @@
       <c r="B70" t="s">
         <v>307</v>
       </c>
+      <c r="C70" t="s">
+        <v>307</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" ref="D70:D126" si="2">IF(B70=C70,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -6702,9 +6883,12 @@
       <c r="B71" t="s">
         <v>308</v>
       </c>
+      <c r="C71" t="s">
+        <v>308</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -6714,9 +6898,12 @@
       <c r="B72" t="s">
         <v>309</v>
       </c>
+      <c r="C72" t="s">
+        <v>309</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -6726,9 +6913,12 @@
       <c r="B73" t="s">
         <v>310</v>
       </c>
+      <c r="C73" t="s">
+        <v>310</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -6738,9 +6928,12 @@
       <c r="B74" t="s">
         <v>311</v>
       </c>
+      <c r="C74" t="s">
+        <v>311</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -6750,9 +6943,12 @@
       <c r="B75" t="s">
         <v>312</v>
       </c>
+      <c r="C75" t="s">
+        <v>312</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -6762,6 +6958,9 @@
       <c r="B76" t="s">
         <v>313</v>
       </c>
+      <c r="C76" t="s">
+        <v>526</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6786,6 +6985,9 @@
       <c r="B78" t="s">
         <v>315</v>
       </c>
+      <c r="C78" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6798,9 +7000,12 @@
       <c r="B79" t="s">
         <v>316</v>
       </c>
+      <c r="C79" t="s">
+        <v>316</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -6810,9 +7015,12 @@
       <c r="B80" t="s">
         <v>317</v>
       </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6822,6 +7030,9 @@
       <c r="B81" t="s">
         <v>318</v>
       </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6846,9 +7057,12 @@
       <c r="B83" t="s">
         <v>320</v>
       </c>
+      <c r="C83" t="s">
+        <v>320</v>
+      </c>
       <c r="D83" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6858,9 +7072,12 @@
       <c r="B84" t="s">
         <v>321</v>
       </c>
+      <c r="C84" t="s">
+        <v>321</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -6870,9 +7087,12 @@
       <c r="B85" t="s">
         <v>322</v>
       </c>
+      <c r="C85" t="s">
+        <v>322</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -6882,9 +7102,12 @@
       <c r="B86" t="s">
         <v>323</v>
       </c>
+      <c r="C86" t="s">
+        <v>323</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -6894,9 +7117,12 @@
       <c r="B87" t="s">
         <v>324</v>
       </c>
+      <c r="C87" t="s">
+        <v>324</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -6906,9 +7132,12 @@
       <c r="B88" t="s">
         <v>325</v>
       </c>
+      <c r="C88" t="s">
+        <v>325</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,9 +7183,12 @@
       <c r="B92" t="s">
         <v>329</v>
       </c>
+      <c r="C92" t="s">
+        <v>329</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -6978,9 +7210,12 @@
       <c r="B94" t="s">
         <v>331</v>
       </c>
+      <c r="C94" t="s">
+        <v>331</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7002,6 +7237,9 @@
       <c r="B96" t="s">
         <v>333</v>
       </c>
+      <c r="C96" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7014,6 +7252,9 @@
       <c r="B97" t="s">
         <v>334</v>
       </c>
+      <c r="C97" t="s">
+        <v>529</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7026,9 +7267,12 @@
       <c r="B98" t="s">
         <v>335</v>
       </c>
+      <c r="C98" t="s">
+        <v>335</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -7038,9 +7282,12 @@
       <c r="B99" t="s">
         <v>336</v>
       </c>
+      <c r="C99" t="s">
+        <v>336</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -7050,9 +7297,12 @@
       <c r="B100" t="s">
         <v>337</v>
       </c>
+      <c r="C100" t="s">
+        <v>337</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -7062,9 +7312,12 @@
       <c r="B101" t="s">
         <v>338</v>
       </c>
+      <c r="C101" t="s">
+        <v>338</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -7074,9 +7327,12 @@
       <c r="B102" t="s">
         <v>339</v>
       </c>
+      <c r="C102" t="s">
+        <v>339</v>
+      </c>
       <c r="D102" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -7086,9 +7342,12 @@
       <c r="B103" t="s">
         <v>340</v>
       </c>
+      <c r="C103" t="s">
+        <v>340</v>
+      </c>
       <c r="D103" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -7098,9 +7357,12 @@
       <c r="B104" t="s">
         <v>341</v>
       </c>
+      <c r="C104" t="s">
+        <v>341</v>
+      </c>
       <c r="D104" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -7110,9 +7372,12 @@
       <c r="B105" t="s">
         <v>342</v>
       </c>
+      <c r="C105" t="s">
+        <v>342</v>
+      </c>
       <c r="D105" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -7122,9 +7387,12 @@
       <c r="B106" t="s">
         <v>343</v>
       </c>
+      <c r="C106" t="s">
+        <v>343</v>
+      </c>
       <c r="D106" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -7134,9 +7402,12 @@
       <c r="B107" t="s">
         <v>344</v>
       </c>
+      <c r="C107" t="s">
+        <v>344</v>
+      </c>
       <c r="D107" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -7146,9 +7417,12 @@
       <c r="B108" t="s">
         <v>345</v>
       </c>
+      <c r="C108" t="s">
+        <v>345</v>
+      </c>
       <c r="D108" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -7158,9 +7432,12 @@
       <c r="B109" t="s">
         <v>346</v>
       </c>
+      <c r="C109" t="s">
+        <v>346</v>
+      </c>
       <c r="D109" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -7170,9 +7447,12 @@
       <c r="B110" t="s">
         <v>347</v>
       </c>
+      <c r="C110" t="s">
+        <v>347</v>
+      </c>
       <c r="D110" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -7182,6 +7462,9 @@
       <c r="B111" t="s">
         <v>348</v>
       </c>
+      <c r="C111" s="6" t="s">
+        <v>530</v>
+      </c>
       <c r="D111" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7194,9 +7477,12 @@
       <c r="B112" t="s">
         <v>349</v>
       </c>
+      <c r="C112" t="s">
+        <v>349</v>
+      </c>
       <c r="D112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -7218,9 +7504,12 @@
       <c r="B114" t="s">
         <v>351</v>
       </c>
+      <c r="C114" t="s">
+        <v>351</v>
+      </c>
       <c r="D114" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -7230,9 +7519,12 @@
       <c r="B115" t="s">
         <v>346</v>
       </c>
+      <c r="C115" t="s">
+        <v>346</v>
+      </c>
       <c r="D115" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -7242,9 +7534,12 @@
       <c r="B116" t="s">
         <v>352</v>
       </c>
+      <c r="C116" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="D116" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,6 +7549,9 @@
       <c r="B117" t="s">
         <v>353</v>
       </c>
+      <c r="C117" t="s">
+        <v>531</v>
+      </c>
       <c r="D117" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7266,6 +7564,9 @@
       <c r="B118" t="s">
         <v>354</v>
       </c>
+      <c r="C118" t="s">
+        <v>274</v>
+      </c>
       <c r="D118" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7278,9 +7579,12 @@
       <c r="B119" t="s">
         <v>355</v>
       </c>
+      <c r="C119" t="s">
+        <v>355</v>
+      </c>
       <c r="D119" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -7290,9 +7594,12 @@
       <c r="B120" t="s">
         <v>356</v>
       </c>
+      <c r="C120" t="s">
+        <v>356</v>
+      </c>
       <c r="D120" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -7302,9 +7609,12 @@
       <c r="B121" t="s">
         <v>155</v>
       </c>
+      <c r="C121" t="s">
+        <v>155</v>
+      </c>
       <c r="D121" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -7314,9 +7624,12 @@
       <c r="B122" t="s">
         <v>357</v>
       </c>
+      <c r="C122" t="s">
+        <v>357</v>
+      </c>
       <c r="D122" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -7338,9 +7651,12 @@
       <c r="B124" t="s">
         <v>359</v>
       </c>
+      <c r="C124" t="s">
+        <v>359</v>
+      </c>
       <c r="D124" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -7350,9 +7666,12 @@
       <c r="B125" t="s">
         <v>360</v>
       </c>
+      <c r="C125" t="s">
+        <v>360</v>
+      </c>
       <c r="D125" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -7373,7 +7692,7 @@
       </c>
       <c r="F129">
         <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
@@ -7382,7 +7701,7 @@
       </c>
       <c r="F130">
         <f>SUM(F129/125*100)</f>
-        <v>0</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
@@ -7395,18 +7714,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132"/>
+  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,14 +9243,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D107"/>
+  <autoFilter ref="D1:D107" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11284,7 +11603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12859,7 +13178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14633,7 +14952,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D149"/>
+  <autoFilter ref="D1:D149" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Exam Attempt3.xlsx
+++ b/Exam Attempt3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2E5B3-7D46-4085-A774-F26036410DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$D$1:$D$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">new!$D$1:$D$149</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="522">
   <si>
     <t>Slno</t>
   </si>
@@ -1564,37 +1563,7 @@
     <t>10.1.4.254</t>
   </si>
   <si>
-    <t xml:space="preserve">FCC ID search </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time-based and boolean-based </t>
-  </si>
-  <si>
-    <t>Phishing attack: an attacker provides the victim with a URL that is either misspelled or looks similar to the legitimate website's domain name. Pharming attack: a victim is redirected to a fake website by modifying their host configuration file or exploiting DNS vulnerabilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kernel rootkit </t>
-  </si>
-  <si>
-    <t>nmap -Pn -sU -p 44818 --script enip-info &lt; Target IP &gt; (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zigbee </t>
-  </si>
-  <si>
     <t>msfvenom -p windows/meterpreter/reverse_tcp RHOST=10.10.10.12 LPORT=8888 -f exe &gt; shell.exe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False positives </t>
-  </si>
-  <si>
-    <t>OS Scan requires root privileges.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honey trap </t>
-  </si>
-  <si>
-    <t>The service is LDAP. You must change it to 636, which is LDAPS.</t>
   </si>
   <si>
     <t>Actions on Objective</t>
@@ -1639,7 +1608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2036,11 +2005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,26 +3915,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="48.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4669,11 +4638,11 @@
         <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>508</v>
+        <v>169</v>
       </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,11 +4653,11 @@
         <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>509</v>
+        <v>170</v>
       </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4849,11 +4818,11 @@
         <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4924,11 +4893,11 @@
         <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>511</v>
+        <v>185</v>
       </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4969,11 +4938,11 @@
         <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>512</v>
+        <v>188</v>
       </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4984,11 +4953,11 @@
         <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>513</v>
+        <v>189</v>
       </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4999,7 +4968,7 @@
         <v>190</v>
       </c>
       <c r="C70" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
@@ -5044,11 +5013,11 @@
         <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>515</v>
+        <v>192</v>
       </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5338,11 +5307,11 @@
         <v>212</v>
       </c>
       <c r="C93" t="s">
-        <v>516</v>
+        <v>212</v>
       </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5461,8 +5430,8 @@
         <v>220</v>
       </c>
       <c r="D101" t="b">
-        <f>IF(B101=C102,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(B101=C101,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5488,11 +5457,11 @@
         <v>221</v>
       </c>
       <c r="C103" t="s">
-        <v>517</v>
+        <v>221</v>
       </c>
       <c r="D103" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5563,11 +5532,11 @@
         <v>226</v>
       </c>
       <c r="C108" t="s">
-        <v>518</v>
+        <v>226</v>
       </c>
       <c r="D108" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(B108=C108,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,7 +5812,7 @@
       </c>
       <c r="F129">
         <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
@@ -5852,7 +5821,7 @@
       </c>
       <c r="F130">
         <f>SUM(F129/125*100)</f>
-        <v>80.800000000000011</v>
+        <v>89.600000000000009</v>
       </c>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
@@ -5865,23 +5834,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="D1:D132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C126"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="50.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
@@ -5898,7 +5868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5913,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5940,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5967,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5982,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5997,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6012,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6063,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6078,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6093,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6108,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6123,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6138,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6153,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6180,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6207,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6222,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6237,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6252,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6267,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6306,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6321,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6336,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6351,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6378,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6393,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6408,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6431,7 +6401,7 @@
         <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
@@ -6450,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6465,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6488,7 +6458,7 @@
         <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
@@ -6519,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6558,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6573,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6596,14 +6566,14 @@
         <v>292</v>
       </c>
       <c r="C51" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6654,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6669,7 +6639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6684,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6711,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6726,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6741,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6756,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6771,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6786,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6801,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6816,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6831,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6854,14 +6824,14 @@
         <v>234</v>
       </c>
       <c r="C69" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D69" t="b">
         <f>IF(B69=C69,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6876,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6891,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6906,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6921,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6936,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6959,7 +6929,7 @@
         <v>313</v>
       </c>
       <c r="C76" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D76" t="b">
         <f t="shared" si="2"/>
@@ -6986,14 +6956,14 @@
         <v>315</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D78" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -7008,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -7050,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7065,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -7080,7 +7050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7095,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -7110,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -7125,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7176,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7203,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7238,7 +7208,7 @@
         <v>333</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D96" t="b">
         <f t="shared" si="2"/>
@@ -7253,14 +7223,14 @@
         <v>334</v>
       </c>
       <c r="C97" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D97" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7275,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7290,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7305,7 +7275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7320,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7335,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7350,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7365,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7380,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7395,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7410,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7425,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7440,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7463,14 +7433,14 @@
         <v>348</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D111" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7497,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7512,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7527,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7550,7 +7520,7 @@
         <v>353</v>
       </c>
       <c r="C117" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D117" t="b">
         <f t="shared" si="2"/>
@@ -7572,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7587,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7602,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7617,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7644,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7659,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7686,7 +7656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>460</v>
       </c>
@@ -7695,7 +7667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>462</v>
       </c>
@@ -7704,7 +7676,8 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>124</v>
       </c>
@@ -7714,24 +7687,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="D1:D132">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C126"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="35.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -8251,7 +8230,7 @@
         <v>395</v>
       </c>
       <c r="C36" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D36" t="b">
         <f t="shared" si="2"/>
@@ -8671,7 +8650,7 @@
         <v>423</v>
       </c>
       <c r="C65" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D65" t="b">
         <f t="shared" si="2"/>
@@ -8875,7 +8854,7 @@
         <v>435</v>
       </c>
       <c r="C79" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D79" t="b">
         <f t="shared" si="2"/>
@@ -9243,14 +9222,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D107" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="D1:D107"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11603,7 +11582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13178,7 +13157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14952,7 +14931,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D149" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="D1:D149"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Exam Attempt3.xlsx
+++ b/Exam Attempt3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F02F60-FC29-441B-A22A-EAE733A8999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$D$1:$D$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">new!$D$1:$D$149</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="522">
   <si>
     <t>Slno</t>
   </si>
@@ -1608,7 +1609,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2005,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
@@ -3915,14 +3916,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131"/>
+  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
@@ -5834,17 +5835,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132"/>
+  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
@@ -7687,7 +7688,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132">
+  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="FALSE"/>
@@ -7700,7 +7701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
@@ -9222,14 +9223,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D107"/>
+  <autoFilter ref="D1:D107" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11582,11 +11583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11949,7 +11950,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
@@ -11961,7 +11962,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>263</v>
+        <v>432</v>
       </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
@@ -11973,7 +11974,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
@@ -11985,7 +11986,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
@@ -12009,7 +12010,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
@@ -12021,7 +12022,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
@@ -12033,7 +12034,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>263</v>
+        <v>432</v>
       </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
@@ -12045,7 +12046,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>432</v>
+        <v>263</v>
       </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
@@ -12057,7 +12058,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>503</v>
       </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
@@ -12069,7 +12070,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
@@ -12081,7 +12082,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
@@ -12093,7 +12094,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
@@ -12117,7 +12118,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
@@ -12129,7 +12130,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
@@ -12141,7 +12142,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
@@ -12153,7 +12154,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
@@ -12165,7 +12166,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
@@ -12189,7 +12190,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
@@ -12201,7 +12202,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
@@ -12225,7 +12226,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
@@ -12249,7 +12250,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>432</v>
+        <v>263</v>
       </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
@@ -12261,7 +12262,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>503</v>
       </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
@@ -12273,7 +12274,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>503</v>
+        <v>432</v>
       </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
@@ -12285,7 +12286,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
@@ -12297,7 +12298,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
@@ -12309,7 +12310,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
@@ -12321,7 +12322,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
@@ -12333,7 +12334,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>432</v>
+        <v>263</v>
       </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
@@ -12345,7 +12346,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>503</v>
       </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
@@ -12357,7 +12358,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>503</v>
+        <v>432</v>
       </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
@@ -12369,7 +12370,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
@@ -12396,7 +12397,7 @@
         <v>502</v>
       </c>
       <c r="D67" t="b">
-        <f t="shared" ref="D67:D127" si="1">IF(B67=C67,TRUE,FALSE)</f>
+        <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -12405,7 +12406,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
@@ -12417,7 +12418,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
@@ -12429,7 +12430,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
@@ -12441,7 +12442,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
@@ -12453,7 +12454,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>432</v>
+        <v>263</v>
       </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
@@ -12465,7 +12466,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>432</v>
       </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
@@ -12477,7 +12478,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
@@ -12501,7 +12502,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>503</v>
+        <v>432</v>
       </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
@@ -12525,7 +12526,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
@@ -12549,7 +12550,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
@@ -12561,7 +12562,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
@@ -12597,7 +12598,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
@@ -12609,7 +12610,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
@@ -12621,7 +12622,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>503</v>
       </c>
       <c r="D86" t="b">
         <f t="shared" si="1"/>
@@ -12645,7 +12646,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
@@ -12657,7 +12658,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="D89" t="b">
         <f t="shared" si="1"/>
@@ -12681,7 +12682,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="D91" t="b">
         <f t="shared" si="1"/>
@@ -12705,7 +12706,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
@@ -12717,7 +12718,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D94" t="b">
         <f t="shared" si="1"/>
@@ -12729,7 +12730,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
@@ -12753,7 +12754,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="D97" t="b">
         <f t="shared" si="1"/>
@@ -12765,7 +12766,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
@@ -12777,7 +12778,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
@@ -12789,7 +12790,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
@@ -12801,7 +12802,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
@@ -12813,7 +12814,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="D102" t="b">
         <f>IF(B102=C102,TRUE,FALSE)</f>
@@ -12825,7 +12826,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D103" t="b">
         <f t="shared" si="1"/>
@@ -12837,7 +12838,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D104" t="b">
         <f t="shared" si="1"/>
@@ -12849,7 +12850,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D105" t="b">
         <f t="shared" si="1"/>
@@ -12861,7 +12862,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="D106" t="b">
         <f t="shared" si="1"/>
@@ -12873,7 +12874,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D107" t="b">
         <f t="shared" si="1"/>
@@ -12885,7 +12886,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D108" t="b">
         <f t="shared" si="1"/>
@@ -12897,7 +12898,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>263</v>
+        <v>502</v>
       </c>
       <c r="D109" t="b">
         <f t="shared" si="1"/>
@@ -12909,7 +12910,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D110" t="b">
         <f t="shared" si="1"/>
@@ -12921,7 +12922,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D111" t="b">
         <f t="shared" si="1"/>
@@ -12933,50 +12934,50 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>263</v>
+        <v>503</v>
       </c>
       <c r="D112" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D113" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D114" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>503</v>
+        <v>432</v>
       </c>
       <c r="D115" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -12988,31 +12989,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>432</v>
+        <v>263</v>
       </c>
       <c r="D117" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>263</v>
+        <v>432</v>
       </c>
       <c r="D118" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13024,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -13036,19 +13037,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="D121" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -13072,82 +13073,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>503</v>
+        <v>263</v>
       </c>
       <c r="D124" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>263</v>
+        <v>503</v>
       </c>
       <c r="D125" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>503</v>
+        <v>432</v>
       </c>
       <c r="D126" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>432</v>
-      </c>
-      <c r="D127" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D129">
-        <f>COUNTIF(D2:D127,TRUE)</f>
-        <v>0</v>
-      </c>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <f>COUNTIF(D2:D126,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>455</v>
+      </c>
+      <c r="G128">
+        <f>SUM(D128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G129">
-        <f>SUM(D129)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F130" t="s">
-        <v>456</v>
-      </c>
-      <c r="G130">
-        <f>SUM(G129/126*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F132" t="s">
+        <f>SUM(G128/125*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
         <v>457</v>
       </c>
-      <c r="G132" t="str">
-        <f>IF(G129&gt;=90,"PASS","FAIL")</f>
+      <c r="G131" t="str">
+        <f>IF(G128&gt;=92,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
@@ -13157,7 +13146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14931,7 +14920,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D149"/>
+  <autoFilter ref="D1:D149" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Exam Attempt3.xlsx
+++ b/Exam Attempt3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F02F60-FC29-441B-A22A-EAE733A8999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$D$1:$D$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">new!$D$1:$D$149</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="522">
   <si>
     <t>Slno</t>
   </si>
@@ -1609,7 +1608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1657,7 +1656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,6 +1666,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1683,7 +1688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1727,6 +1732,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2006,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
@@ -3916,14 +3922,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
@@ -5835,13 +5841,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="D1:D132"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F132"/>
   <sheetViews>
@@ -7688,7 +7694,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="D1:D132">
     <filterColumn colId="0">
       <filters>
         <filter val="FALSE"/>
@@ -7701,7 +7707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
@@ -9223,14 +9229,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D107" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="D1:D107"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11583,1574 +11589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" t="b">
-        <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" t="b">
-        <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>503</v>
-      </c>
-      <c r="D7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>502</v>
-      </c>
-      <c r="D12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>432</v>
-      </c>
-      <c r="D13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>502</v>
-      </c>
-      <c r="D14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>503</v>
-      </c>
-      <c r="D15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>503</v>
-      </c>
-      <c r="D16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>432</v>
-      </c>
-      <c r="D17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>502</v>
-      </c>
-      <c r="D18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>432</v>
-      </c>
-      <c r="D19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D20" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>432</v>
-      </c>
-      <c r="D21" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>432</v>
-      </c>
-      <c r="D22" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>503</v>
-      </c>
-      <c r="D23" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>432</v>
-      </c>
-      <c r="D24" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>503</v>
-      </c>
-      <c r="D25" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>502</v>
-      </c>
-      <c r="D26" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>432</v>
-      </c>
-      <c r="D27" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>502</v>
-      </c>
-      <c r="D28" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>502</v>
-      </c>
-      <c r="D29" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>432</v>
-      </c>
-      <c r="D31" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>502</v>
-      </c>
-      <c r="D32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>503</v>
-      </c>
-      <c r="D33" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>503</v>
-      </c>
-      <c r="D34" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>502</v>
-      </c>
-      <c r="D35" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>432</v>
-      </c>
-      <c r="D37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>503</v>
-      </c>
-      <c r="D39" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D40" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>502</v>
-      </c>
-      <c r="D41" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>503</v>
-      </c>
-      <c r="D42" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>503</v>
-      </c>
-      <c r="D43" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D44" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>502</v>
-      </c>
-      <c r="D45" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>432</v>
-      </c>
-      <c r="D46" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>502</v>
-      </c>
-      <c r="D47" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>503</v>
-      </c>
-      <c r="D48" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>503</v>
-      </c>
-      <c r="D49" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>263</v>
-      </c>
-      <c r="D50" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>502</v>
-      </c>
-      <c r="D51" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>502</v>
-      </c>
-      <c r="D52" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>432</v>
-      </c>
-      <c r="D53" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>432</v>
-      </c>
-      <c r="D54" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>263</v>
-      </c>
-      <c r="D55" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>503</v>
-      </c>
-      <c r="D56" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>432</v>
-      </c>
-      <c r="D57" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>502</v>
-      </c>
-      <c r="D58" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>432</v>
-      </c>
-      <c r="D59" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>502</v>
-      </c>
-      <c r="D60" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>432</v>
-      </c>
-      <c r="D61" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>263</v>
-      </c>
-      <c r="D62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>503</v>
-      </c>
-      <c r="D63" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>432</v>
-      </c>
-      <c r="D64" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>502</v>
-      </c>
-      <c r="D65" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>502</v>
-      </c>
-      <c r="D66" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>502</v>
-      </c>
-      <c r="D67" t="b">
-        <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>432</v>
-      </c>
-      <c r="D68" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>503</v>
-      </c>
-      <c r="D69" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>502</v>
-      </c>
-      <c r="D70" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>432</v>
-      </c>
-      <c r="D71" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>263</v>
-      </c>
-      <c r="D72" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>432</v>
-      </c>
-      <c r="D73" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>503</v>
-      </c>
-      <c r="D74" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>503</v>
-      </c>
-      <c r="D75" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>432</v>
-      </c>
-      <c r="D76" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>432</v>
-      </c>
-      <c r="D77" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>503</v>
-      </c>
-      <c r="D78" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>503</v>
-      </c>
-      <c r="D79" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>502</v>
-      </c>
-      <c r="D80" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>263</v>
-      </c>
-      <c r="D81" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>263</v>
-      </c>
-      <c r="D82" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>263</v>
-      </c>
-      <c r="D83" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>502</v>
-      </c>
-      <c r="D84" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>263</v>
-      </c>
-      <c r="D85" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>503</v>
-      </c>
-      <c r="D86" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>503</v>
-      </c>
-      <c r="D87" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>263</v>
-      </c>
-      <c r="D88" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>502</v>
-      </c>
-      <c r="D89" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>502</v>
-      </c>
-      <c r="D90" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>432</v>
-      </c>
-      <c r="D91" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>432</v>
-      </c>
-      <c r="D92" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>503</v>
-      </c>
-      <c r="D93" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>502</v>
-      </c>
-      <c r="D94" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>263</v>
-      </c>
-      <c r="D95" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>263</v>
-      </c>
-      <c r="D96" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>502</v>
-      </c>
-      <c r="D97" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>503</v>
-      </c>
-      <c r="D98" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>263</v>
-      </c>
-      <c r="D99" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>502</v>
-      </c>
-      <c r="D100" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>432</v>
-      </c>
-      <c r="D101" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>503</v>
-      </c>
-      <c r="D102" t="b">
-        <f>IF(B102=C102,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>502</v>
-      </c>
-      <c r="D103" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>503</v>
-      </c>
-      <c r="D104" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>263</v>
-      </c>
-      <c r="D105" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>502</v>
-      </c>
-      <c r="D106" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>503</v>
-      </c>
-      <c r="D107" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>263</v>
-      </c>
-      <c r="D108" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>502</v>
-      </c>
-      <c r="D109" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>503</v>
-      </c>
-      <c r="D110" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>263</v>
-      </c>
-      <c r="D111" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>503</v>
-      </c>
-      <c r="D112" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>502</v>
-      </c>
-      <c r="D113" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>503</v>
-      </c>
-      <c r="D114" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>432</v>
-      </c>
-      <c r="D115" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>432</v>
-      </c>
-      <c r="D116" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>263</v>
-      </c>
-      <c r="D117" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>432</v>
-      </c>
-      <c r="D118" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>432</v>
-      </c>
-      <c r="D119" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>432</v>
-      </c>
-      <c r="D120" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>503</v>
-      </c>
-      <c r="D121" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>503</v>
-      </c>
-      <c r="D122" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>503</v>
-      </c>
-      <c r="D123" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>263</v>
-      </c>
-      <c r="D124" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>503</v>
-      </c>
-      <c r="D125" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>432</v>
-      </c>
-      <c r="D126" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D128">
-        <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F128" t="s">
-        <v>455</v>
-      </c>
-      <c r="G128">
-        <f>SUM(D128)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F129" t="s">
-        <v>456</v>
-      </c>
-      <c r="G129">
-        <f>SUM(G128/125*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F131" t="s">
-        <v>457</v>
-      </c>
-      <c r="G131" t="str">
-        <f>IF(G128&gt;=92,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G149"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13177,11 +11620,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
       </c>
       <c r="D2" t="b">
-        <f t="shared" ref="D2:D33" si="0">IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(B2=C2,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13189,11 +11635,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
       </c>
       <c r="D3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13201,11 +11650,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>432</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13215,9 +11667,12 @@
       <c r="B5" t="s">
         <v>503</v>
       </c>
+      <c r="C5" t="s">
+        <v>503</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13225,11 +11680,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>502</v>
+      </c>
+      <c r="C6" t="s">
+        <v>502</v>
       </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13237,11 +11695,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C7" t="s">
+        <v>503</v>
       </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13249,11 +11710,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>503</v>
+      </c>
+      <c r="C8" t="s">
+        <v>503</v>
       </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -13261,7 +11725,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>432</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
       </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
@@ -13273,11 +11740,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
       </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13287,9 +11757,12 @@
       <c r="B11" t="s">
         <v>263</v>
       </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -13297,11 +11770,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
       </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -13311,9 +11787,12 @@
       <c r="B13" t="s">
         <v>432</v>
       </c>
+      <c r="C13" t="s">
+        <v>432</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13321,11 +11800,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>502</v>
+      </c>
+      <c r="C14" t="s">
+        <v>502</v>
       </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13333,11 +11815,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="C15" t="s">
+        <v>503</v>
       </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13347,9 +11832,12 @@
       <c r="B16" t="s">
         <v>503</v>
       </c>
+      <c r="C16" t="s">
+        <v>503</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -13359,9 +11847,12 @@
       <c r="B17" t="s">
         <v>432</v>
       </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -13371,9 +11862,12 @@
       <c r="B18" t="s">
         <v>502</v>
       </c>
+      <c r="C18" t="s">
+        <v>502</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -13381,11 +11875,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>502</v>
+        <v>432</v>
+      </c>
+      <c r="C19" t="s">
+        <v>432</v>
       </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -13393,11 +11890,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="C20" t="s">
+        <v>503</v>
       </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -13405,11 +11905,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>432</v>
+      </c>
+      <c r="C21" t="s">
+        <v>432</v>
       </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -13419,9 +11922,12 @@
       <c r="B22" t="s">
         <v>432</v>
       </c>
+      <c r="C22" t="s">
+        <v>432</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -13429,11 +11935,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="C23" t="s">
+        <v>503</v>
       </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -13441,11 +11950,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>432</v>
+      </c>
+      <c r="C24" t="s">
+        <v>432</v>
       </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -13453,11 +11965,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C25" t="s">
+        <v>503</v>
       </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -13467,9 +11982,12 @@
       <c r="B26" t="s">
         <v>502</v>
       </c>
+      <c r="C26" t="s">
+        <v>502</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -13477,11 +11995,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>503</v>
+        <v>432</v>
+      </c>
+      <c r="C27" t="s">
+        <v>432</v>
       </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -13489,11 +12010,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>432</v>
+        <v>502</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>502</v>
       </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -13503,9 +12027,12 @@
       <c r="B29" t="s">
         <v>502</v>
       </c>
+      <c r="C29" t="s">
+        <v>502</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -13513,7 +12040,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>502</v>
       </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
@@ -13525,11 +12055,14 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>502</v>
+        <v>432</v>
+      </c>
+      <c r="C31" t="s">
+        <v>432</v>
       </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -13537,11 +12070,14 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>432</v>
+        <v>502</v>
+      </c>
+      <c r="C32" t="s">
+        <v>502</v>
       </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -13549,11 +12085,14 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C33" t="s">
+        <v>503</v>
       </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -13561,11 +12100,14 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>503</v>
+      </c>
+      <c r="C34" t="s">
+        <v>503</v>
       </c>
       <c r="D34" t="b">
-        <f t="shared" ref="D34:D65" si="1">IF(B34=C34,TRUE,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -13575,9 +12117,12 @@
       <c r="B35" t="s">
         <v>502</v>
       </c>
+      <c r="C35" t="s">
+        <v>502</v>
+      </c>
       <c r="D35" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -13585,11 +12130,14 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="D36" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -13599,9 +12147,12 @@
       <c r="B37" t="s">
         <v>432</v>
       </c>
+      <c r="C37" t="s">
+        <v>432</v>
+      </c>
       <c r="D37" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -13609,11 +12160,14 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C38" t="s">
+        <v>263</v>
       </c>
       <c r="D38" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -13623,8 +12177,11 @@
       <c r="B39" t="s">
         <v>503</v>
       </c>
+      <c r="C39" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="D39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13633,11 +12190,14 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C40" t="s">
+        <v>263</v>
       </c>
       <c r="D40" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -13645,11 +12205,14 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="C41" t="s">
+        <v>502</v>
       </c>
       <c r="D41" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -13657,11 +12220,14 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C42" t="s">
+        <v>503</v>
       </c>
       <c r="D42" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -13669,11 +12235,14 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C43" t="s">
+        <v>503</v>
       </c>
       <c r="D43" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -13681,11 +12250,14 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>432</v>
+        <v>263</v>
+      </c>
+      <c r="C44" t="s">
+        <v>263</v>
       </c>
       <c r="D44" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -13693,11 +12265,14 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>432</v>
+        <v>502</v>
+      </c>
+      <c r="C45" t="s">
+        <v>502</v>
       </c>
       <c r="D45" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -13705,10 +12280,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>432</v>
+      </c>
+      <c r="C46" t="s">
         <v>503</v>
       </c>
       <c r="D46" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13717,11 +12295,14 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>263</v>
+        <v>502</v>
+      </c>
+      <c r="C47" t="s">
+        <v>502</v>
       </c>
       <c r="D47" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -13731,9 +12312,12 @@
       <c r="B48" t="s">
         <v>503</v>
       </c>
+      <c r="C48" t="s">
+        <v>503</v>
+      </c>
       <c r="D48" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -13741,11 +12325,14 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C49" t="s">
+        <v>503</v>
       </c>
       <c r="D49" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -13753,11 +12340,14 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="D50" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -13765,11 +12355,14 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>432</v>
+        <v>502</v>
+      </c>
+      <c r="C51" t="s">
+        <v>502</v>
       </c>
       <c r="D51" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -13779,9 +12372,12 @@
       <c r="B52" t="s">
         <v>502</v>
       </c>
+      <c r="C52" t="s">
+        <v>502</v>
+      </c>
       <c r="D52" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -13789,11 +12385,14 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>502</v>
+        <v>432</v>
+      </c>
+      <c r="C53" t="s">
+        <v>432</v>
       </c>
       <c r="D53" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -13801,11 +12400,14 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>502</v>
+        <v>432</v>
+      </c>
+      <c r="C54" t="s">
+        <v>432</v>
       </c>
       <c r="D54" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -13813,11 +12415,14 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C55" t="s">
+        <v>263</v>
       </c>
       <c r="D55" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -13825,11 +12430,14 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="C56" t="s">
+        <v>503</v>
       </c>
       <c r="D56" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -13837,11 +12445,14 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>502</v>
+        <v>432</v>
+      </c>
+      <c r="C57" t="s">
+        <v>432</v>
       </c>
       <c r="D57" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -13849,11 +12460,14 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="C58" t="s">
+        <v>502</v>
       </c>
       <c r="D58" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -13861,11 +12475,14 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>432</v>
+      </c>
+      <c r="C59" t="s">
+        <v>432</v>
       </c>
       <c r="D59" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -13873,11 +12490,14 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>502</v>
+      </c>
+      <c r="C60" t="s">
+        <v>502</v>
       </c>
       <c r="D60" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -13885,11 +12505,14 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>503</v>
+        <v>432</v>
+      </c>
+      <c r="C61" t="s">
+        <v>432</v>
       </c>
       <c r="D61" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -13897,11 +12520,14 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>432</v>
+        <v>263</v>
+      </c>
+      <c r="C62" t="s">
+        <v>263</v>
       </c>
       <c r="D62" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -13909,11 +12535,14 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="C63" t="s">
+        <v>503</v>
       </c>
       <c r="D63" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -13923,9 +12552,12 @@
       <c r="B64" t="s">
         <v>432</v>
       </c>
+      <c r="C64" t="s">
+        <v>432</v>
+      </c>
       <c r="D64" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -13933,11 +12565,14 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="C65" t="s">
+        <v>502</v>
       </c>
       <c r="D65" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -13945,11 +12580,14 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>502</v>
+      </c>
+      <c r="C66" t="s">
+        <v>502</v>
       </c>
       <c r="D66" t="b">
-        <f t="shared" ref="D66:D97" si="2">IF(B66=C66,TRUE,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -13959,8 +12597,11 @@
       <c r="B67" t="s">
         <v>502</v>
       </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
       <c r="D67" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -13969,10 +12610,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>263</v>
+        <v>432</v>
+      </c>
+      <c r="C68" t="s">
+        <v>503</v>
       </c>
       <c r="D68" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13981,11 +12625,14 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C69" t="s">
+        <v>503</v>
       </c>
       <c r="D69" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -13993,11 +12640,14 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>432</v>
+        <v>502</v>
+      </c>
+      <c r="C70" t="s">
+        <v>502</v>
       </c>
       <c r="D70" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -14005,11 +12655,14 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>503</v>
+        <v>432</v>
+      </c>
+      <c r="C71" t="s">
+        <v>432</v>
       </c>
       <c r="D71" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -14019,9 +12672,12 @@
       <c r="B72" t="s">
         <v>263</v>
       </c>
+      <c r="C72" t="s">
+        <v>263</v>
+      </c>
       <c r="D72" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -14031,9 +12687,12 @@
       <c r="B73" t="s">
         <v>432</v>
       </c>
+      <c r="C73" t="s">
+        <v>432</v>
+      </c>
       <c r="D73" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -14043,9 +12702,12 @@
       <c r="B74" t="s">
         <v>503</v>
       </c>
+      <c r="C74" t="s">
+        <v>503</v>
+      </c>
       <c r="D74" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -14053,11 +12715,14 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C75" t="s">
+        <v>503</v>
       </c>
       <c r="D75" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -14065,11 +12730,14 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>502</v>
+        <v>432</v>
+      </c>
+      <c r="C76" t="s">
+        <v>432</v>
       </c>
       <c r="D76" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -14077,10 +12745,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>503</v>
+        <v>432</v>
+      </c>
+      <c r="C77" t="s">
+        <v>502</v>
       </c>
       <c r="D77" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14089,11 +12760,14 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C78" t="s">
+        <v>503</v>
       </c>
       <c r="D78" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -14101,11 +12775,14 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C79" t="s">
+        <v>503</v>
       </c>
       <c r="D79" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -14113,11 +12790,14 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>502</v>
+      </c>
+      <c r="C80" t="s">
+        <v>502</v>
       </c>
       <c r="D80" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -14125,11 +12805,14 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="C81" t="s">
+        <v>263</v>
       </c>
       <c r="D81" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -14137,11 +12820,14 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C82" t="s">
+        <v>263</v>
       </c>
       <c r="D82" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -14151,9 +12837,12 @@
       <c r="B83" t="s">
         <v>263</v>
       </c>
+      <c r="C83" t="s">
+        <v>263</v>
+      </c>
       <c r="D83" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -14163,9 +12852,12 @@
       <c r="B84" t="s">
         <v>502</v>
       </c>
+      <c r="C84" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="D84" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -14173,11 +12865,14 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>503</v>
+        <v>263</v>
+      </c>
+      <c r="C85" t="s">
+        <v>263</v>
       </c>
       <c r="D85" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -14185,11 +12880,14 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>503</v>
+      </c>
+      <c r="C86" t="s">
+        <v>503</v>
       </c>
       <c r="D86" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -14197,11 +12895,14 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>503</v>
+      </c>
+      <c r="C87" t="s">
+        <v>503</v>
       </c>
       <c r="D87" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -14209,11 +12910,14 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C88" t="s">
+        <v>263</v>
       </c>
       <c r="D88" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -14221,11 +12925,14 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>502</v>
+      </c>
+      <c r="C89" t="s">
+        <v>502</v>
       </c>
       <c r="D89" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -14233,11 +12940,14 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>502</v>
       </c>
       <c r="D90" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -14247,9 +12957,12 @@
       <c r="B91" t="s">
         <v>432</v>
       </c>
+      <c r="C91" t="s">
+        <v>432</v>
+      </c>
       <c r="D91" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -14257,11 +12970,14 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>503</v>
+        <v>432</v>
+      </c>
+      <c r="C92" t="s">
+        <v>432</v>
       </c>
       <c r="D92" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -14269,11 +12985,14 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>503</v>
+      </c>
+      <c r="C93" t="s">
+        <v>503</v>
       </c>
       <c r="D93" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -14281,11 +13000,14 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>502</v>
+      </c>
+      <c r="C94" t="s">
+        <v>502</v>
       </c>
       <c r="D94" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -14293,11 +13015,14 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C95" t="s">
+        <v>263</v>
       </c>
       <c r="D95" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -14305,11 +13030,14 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>432</v>
+        <v>263</v>
+      </c>
+      <c r="C96" t="s">
+        <v>263</v>
       </c>
       <c r="D96" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -14317,11 +13045,14 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>263</v>
+        <v>502</v>
+      </c>
+      <c r="C97" t="s">
+        <v>502</v>
       </c>
       <c r="D97" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -14331,9 +13062,12 @@
       <c r="B98" t="s">
         <v>503</v>
       </c>
+      <c r="C98" t="s">
+        <v>503</v>
+      </c>
       <c r="D98" t="b">
-        <f t="shared" ref="D98:D129" si="3">IF(B98=C98,TRUE,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -14341,11 +13075,14 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C99" t="s">
+        <v>263</v>
       </c>
       <c r="D99" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -14355,9 +13092,12 @@
       <c r="B100" t="s">
         <v>502</v>
       </c>
+      <c r="C100" t="s">
+        <v>502</v>
+      </c>
       <c r="D100" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -14365,11 +13105,14 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>503</v>
+        <v>432</v>
+      </c>
+      <c r="C101" t="s">
+        <v>432</v>
       </c>
       <c r="D101" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -14377,11 +13120,14 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="C102" t="s">
+        <v>503</v>
       </c>
       <c r="D102" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(B102=C102,TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -14389,11 +13135,14 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>432</v>
+        <v>502</v>
+      </c>
+      <c r="C103" t="s">
+        <v>502</v>
       </c>
       <c r="D103" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -14401,11 +13150,14 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="C104" t="s">
+        <v>503</v>
       </c>
       <c r="D104" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -14413,11 +13165,14 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C105" t="s">
+        <v>263</v>
       </c>
       <c r="D105" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -14425,11 +13180,14 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>432</v>
+        <v>502</v>
+      </c>
+      <c r="C106" t="s">
+        <v>502</v>
       </c>
       <c r="D106" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -14437,11 +13195,14 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>503</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="D107" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -14449,11 +13210,14 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>502</v>
+        <v>263</v>
+      </c>
+      <c r="C108" t="s">
+        <v>263</v>
       </c>
       <c r="D108" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -14461,11 +13225,14 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>263</v>
+        <v>502</v>
+      </c>
+      <c r="C109" t="s">
+        <v>502</v>
       </c>
       <c r="D109" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -14473,11 +13240,14 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>432</v>
+        <v>503</v>
+      </c>
+      <c r="C110" t="s">
+        <v>503</v>
       </c>
       <c r="D110" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -14485,11 +13255,14 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>432</v>
+        <v>263</v>
+      </c>
+      <c r="C111" t="s">
+        <v>263</v>
       </c>
       <c r="D111" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -14497,263 +13270,2264 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>503</v>
+      </c>
+      <c r="C112" t="s">
+        <v>503</v>
+      </c>
+      <c r="D112" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>502</v>
+      </c>
+      <c r="C113" t="s">
+        <v>502</v>
+      </c>
+      <c r="D113" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>503</v>
+      </c>
+      <c r="C114" t="s">
+        <v>503</v>
+      </c>
+      <c r="D114" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>432</v>
+      </c>
+      <c r="C115" t="s">
+        <v>432</v>
+      </c>
+      <c r="D115" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>432</v>
+      </c>
+      <c r="C116" t="s">
+        <v>432</v>
+      </c>
+      <c r="D116" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>432</v>
+      </c>
+      <c r="C118" t="s">
+        <v>432</v>
+      </c>
+      <c r="D118" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>432</v>
+      </c>
+      <c r="C119" t="s">
+        <v>432</v>
+      </c>
+      <c r="D119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>432</v>
+      </c>
+      <c r="C120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D120" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>503</v>
+      </c>
+      <c r="C121" t="s">
+        <v>503</v>
+      </c>
+      <c r="D121" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>503</v>
+      </c>
+      <c r="C122" t="s">
+        <v>503</v>
+      </c>
+      <c r="D122" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>503</v>
+      </c>
+      <c r="C123" t="s">
+        <v>503</v>
+      </c>
+      <c r="D123" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>503</v>
+      </c>
+      <c r="C125" t="s">
+        <v>503</v>
+      </c>
+      <c r="D125" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>432</v>
+      </c>
+      <c r="C126" t="s">
+        <v>432</v>
+      </c>
+      <c r="D126" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <f>COUNTIF(D2:D126,TRUE)</f>
+        <v>118</v>
+      </c>
+      <c r="F128" t="s">
+        <v>455</v>
+      </c>
+      <c r="G128">
+        <f>SUM(D128)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>456</v>
+      </c>
+      <c r="G129">
+        <f>SUM(G128/125*100)</f>
+        <v>94.399999999999991</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>457</v>
+      </c>
+      <c r="G131" t="str">
+        <f>IF(G128&gt;=92,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="b">
+        <f t="shared" ref="D2:D33" si="0">IF(B2=C2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C23" t="s">
+        <v>502</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C26" t="s">
+        <v>502</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" t="s">
+        <v>432</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29" t="s">
+        <v>502</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" t="s">
+        <v>503</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31" t="s">
+        <v>502</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" t="s">
+        <v>432</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>432</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" ref="D34:D65" si="1">IF(B34=C34,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>502</v>
+      </c>
+      <c r="C35" t="s">
+        <v>502</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>502</v>
+      </c>
+      <c r="C36" t="s">
+        <v>502</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38" t="s">
+        <v>502</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>503</v>
+      </c>
+      <c r="C39" t="s">
+        <v>503</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>502</v>
+      </c>
+      <c r="C40" t="s">
+        <v>502</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>503</v>
+      </c>
+      <c r="C41" t="s">
+        <v>503</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>432</v>
+      </c>
+      <c r="C42" t="s">
+        <v>432</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>432</v>
+      </c>
+      <c r="C43" t="s">
+        <v>432</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>432</v>
+      </c>
+      <c r="C44" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>432</v>
+      </c>
+      <c r="C45" t="s">
+        <v>432</v>
+      </c>
+      <c r="D45" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>503</v>
+      </c>
+      <c r="C46" t="s">
+        <v>503</v>
+      </c>
+      <c r="D46" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>503</v>
+      </c>
+      <c r="C48" t="s">
+        <v>503</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>432</v>
+      </c>
+      <c r="C49" t="s">
+        <v>432</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>502</v>
+      </c>
+      <c r="C50" t="s">
+        <v>502</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" t="s">
+        <v>432</v>
+      </c>
+      <c r="D51" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>502</v>
+      </c>
+      <c r="C52" t="s">
+        <v>502</v>
+      </c>
+      <c r="D52" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>502</v>
+      </c>
+      <c r="C53" t="s">
+        <v>502</v>
+      </c>
+      <c r="D53" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>502</v>
+      </c>
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
+      <c r="D54" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55" t="s">
+        <v>502</v>
+      </c>
+      <c r="D55" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>502</v>
+      </c>
+      <c r="C56" t="s">
+        <v>432</v>
+      </c>
+      <c r="D56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>502</v>
+      </c>
+      <c r="C57" t="s">
+        <v>502</v>
+      </c>
+      <c r="D57" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>503</v>
+      </c>
+      <c r="C58" t="s">
+        <v>503</v>
+      </c>
+      <c r="D58" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>503</v>
+      </c>
+      <c r="C61" t="s">
+        <v>503</v>
+      </c>
+      <c r="D61" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C62" t="s">
+        <v>432</v>
+      </c>
+      <c r="D62" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>502</v>
+      </c>
+      <c r="C63" t="s">
+        <v>502</v>
+      </c>
+      <c r="D63" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>432</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>503</v>
+      </c>
+      <c r="C65" t="s">
+        <v>503</v>
+      </c>
+      <c r="D65" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" t="b">
+        <f t="shared" ref="D66:D97" si="2">IF(B66=C66,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>502</v>
+      </c>
+      <c r="C67" t="s">
+        <v>432</v>
+      </c>
+      <c r="D67" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>432</v>
+      </c>
+      <c r="C69" t="s">
+        <v>432</v>
+      </c>
+      <c r="D69" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C70" t="s">
+        <v>432</v>
+      </c>
+      <c r="D70" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>503</v>
+      </c>
+      <c r="C71" t="s">
+        <v>503</v>
+      </c>
+      <c r="D71" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>432</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D73" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>503</v>
+      </c>
+      <c r="C74" t="s">
+        <v>503</v>
+      </c>
+      <c r="D74" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>432</v>
+      </c>
+      <c r="C75" t="s">
+        <v>432</v>
+      </c>
+      <c r="D75" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>502</v>
+      </c>
+      <c r="C76" t="s">
+        <v>502</v>
+      </c>
+      <c r="D76" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>503</v>
+      </c>
+      <c r="C77" t="s">
+        <v>503</v>
+      </c>
+      <c r="D77" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>432</v>
+      </c>
+      <c r="C78" t="s">
+        <v>432</v>
+      </c>
+      <c r="D78" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>432</v>
+      </c>
+      <c r="C79" t="s">
+        <v>432</v>
+      </c>
+      <c r="D79" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" t="s">
+        <v>263</v>
+      </c>
+      <c r="D80" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>503</v>
+      </c>
+      <c r="C81" t="s">
+        <v>503</v>
+      </c>
+      <c r="D81" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>502</v>
+      </c>
+      <c r="C82" t="s">
+        <v>502</v>
+      </c>
+      <c r="D82" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" t="s">
+        <v>502</v>
+      </c>
+      <c r="D83" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>502</v>
+      </c>
+      <c r="C84" t="s">
+        <v>502</v>
+      </c>
+      <c r="D84" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>503</v>
+      </c>
+      <c r="C85" t="s">
+        <v>503</v>
+      </c>
+      <c r="D85" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>502</v>
+      </c>
+      <c r="C88" t="s">
+        <v>502</v>
+      </c>
+      <c r="D88" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>503</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D90" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>432</v>
+      </c>
+      <c r="C91" t="s">
+        <v>432</v>
+      </c>
+      <c r="D91" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>503</v>
+      </c>
+      <c r="C92" t="s">
+        <v>503</v>
+      </c>
+      <c r="D92" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>502</v>
+      </c>
+      <c r="C95" t="s">
+        <v>502</v>
+      </c>
+      <c r="D95" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" t="s">
+        <v>432</v>
+      </c>
+      <c r="D96" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" t="s">
+        <v>263</v>
+      </c>
+      <c r="D97" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>503</v>
+      </c>
+      <c r="C98" t="s">
+        <v>503</v>
+      </c>
+      <c r="D98" t="b">
+        <f t="shared" ref="D98:D129" si="3">IF(B98=C98,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>502</v>
+      </c>
+      <c r="C99" t="s">
+        <v>502</v>
+      </c>
+      <c r="D99" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>502</v>
+      </c>
+      <c r="C100" t="s">
+        <v>502</v>
+      </c>
+      <c r="D100" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>503</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>502</v>
+      </c>
+      <c r="C102" t="s">
+        <v>502</v>
+      </c>
+      <c r="D102" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>432</v>
+      </c>
+      <c r="C103" t="s">
+        <v>432</v>
+      </c>
+      <c r="D103" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>502</v>
+      </c>
+      <c r="C104" t="s">
+        <v>502</v>
+      </c>
+      <c r="D104" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>502</v>
+      </c>
+      <c r="C105" t="s">
+        <v>502</v>
+      </c>
+      <c r="D105" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>432</v>
+      </c>
+      <c r="C106" t="s">
+        <v>432</v>
+      </c>
+      <c r="D106" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" t="s">
+        <v>263</v>
+      </c>
+      <c r="D107" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>502</v>
+      </c>
+      <c r="C108" t="s">
+        <v>502</v>
+      </c>
+      <c r="D108" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" t="s">
+        <v>263</v>
+      </c>
+      <c r="D109" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>432</v>
+      </c>
+      <c r="C110" t="s">
+        <v>432</v>
+      </c>
+      <c r="D110" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>432</v>
+      </c>
+      <c r="C111" t="s">
+        <v>432</v>
+      </c>
+      <c r="D111" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>432</v>
+      </c>
+      <c r="C112" t="s">
         <v>432</v>
       </c>
       <c r="D112" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>432</v>
       </c>
+      <c r="C113" t="s">
+        <v>432</v>
+      </c>
       <c r="D113" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>502</v>
       </c>
+      <c r="C114" t="s">
+        <v>502</v>
+      </c>
       <c r="D114" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>503</v>
       </c>
+      <c r="C115" t="s">
+        <v>503</v>
+      </c>
       <c r="D115" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>502</v>
       </c>
+      <c r="C116" t="s">
+        <v>502</v>
+      </c>
       <c r="D116" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>502</v>
       </c>
+      <c r="C117" t="s">
+        <v>502</v>
+      </c>
       <c r="D117" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>432</v>
       </c>
+      <c r="C118" t="s">
+        <v>432</v>
+      </c>
       <c r="D118" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>502</v>
       </c>
+      <c r="C119" t="s">
+        <v>502</v>
+      </c>
       <c r="D119" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>263</v>
       </c>
+      <c r="C120" t="s">
+        <v>263</v>
+      </c>
       <c r="D120" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>263</v>
       </c>
+      <c r="C121" t="s">
+        <v>263</v>
+      </c>
       <c r="D121" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>432</v>
       </c>
+      <c r="C122" t="s">
+        <v>432</v>
+      </c>
       <c r="D122" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>502</v>
       </c>
+      <c r="C123" t="s">
+        <v>502</v>
+      </c>
       <c r="D123" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>432</v>
       </c>
+      <c r="C124" t="s">
+        <v>432</v>
+      </c>
       <c r="D124" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>503</v>
       </c>
+      <c r="C125" t="s">
+        <v>503</v>
+      </c>
       <c r="D125" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>502</v>
       </c>
+      <c r="C126" t="s">
+        <v>502</v>
+      </c>
       <c r="D126" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>432</v>
       </c>
+      <c r="C127" t="s">
+        <v>432</v>
+      </c>
       <c r="D127" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>503</v>
       </c>
+      <c r="C128" t="s">
+        <v>503</v>
+      </c>
       <c r="D128" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>432</v>
       </c>
+      <c r="C129" t="s">
+        <v>432</v>
+      </c>
       <c r="D129" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>503</v>
       </c>
+      <c r="C130" t="s">
+        <v>503</v>
+      </c>
       <c r="D130" t="b">
         <f t="shared" ref="D130:D144" si="4">IF(B130=C130,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>263</v>
       </c>
+      <c r="C131" t="s">
+        <v>263</v>
+      </c>
       <c r="D131" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>432</v>
       </c>
+      <c r="C132" t="s">
+        <v>432</v>
+      </c>
       <c r="D132" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>432</v>
       </c>
+      <c r="C133" t="s">
+        <v>432</v>
+      </c>
       <c r="D133" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -14768,159 +15542,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>263</v>
       </c>
+      <c r="C135" t="s">
+        <v>263</v>
+      </c>
       <c r="D135" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>503</v>
       </c>
+      <c r="C136" t="s">
+        <v>503</v>
+      </c>
       <c r="D136" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>263</v>
       </c>
+      <c r="C137" t="s">
+        <v>263</v>
+      </c>
       <c r="D137" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>263</v>
       </c>
+      <c r="C138" t="s">
+        <v>263</v>
+      </c>
       <c r="D138" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>502</v>
       </c>
+      <c r="C139" t="s">
+        <v>502</v>
+      </c>
       <c r="D139" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>503</v>
       </c>
+      <c r="C140" t="s">
+        <v>503</v>
+      </c>
       <c r="D140" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>432</v>
       </c>
+      <c r="C141" t="s">
+        <v>432</v>
+      </c>
       <c r="D141" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>503</v>
       </c>
+      <c r="C142" t="s">
+        <v>503</v>
+      </c>
       <c r="D142" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>263</v>
       </c>
+      <c r="C143" t="s">
+        <v>263</v>
+      </c>
       <c r="D143" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>502</v>
       </c>
+      <c r="C144" t="s">
+        <v>502</v>
+      </c>
       <c r="D144" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146">
         <f>COUNTIF(D2:D144,TRUE)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F146" t="s">
         <v>455</v>
       </c>
       <c r="G146">
         <f>SUM(D146)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
         <v>456</v>
       </c>
       <c r="G147">
         <f>SUM(G146/143*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+        <v>95.104895104895107</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
         <v>457</v>
       </c>
       <c r="G149" t="str">
         <f>IF(G146&gt;=102,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D149" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="D1:D149">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>